--- a/input Documant/cr/Review/PO_SB_CR_WEB_Review.xlsx
+++ b/input Documant/cr/Review/PO_SB_CR_WEB_Review.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Graduation_Project\Web_SWProcess_Documents\input Documant\cr\Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94741765-2610-4A37-9F29-E67FAC3BCB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7CB1B7-571E-4FB5-B912-38A93C9F4476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="ورقة1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Entry Date</t>
   </si>
@@ -47,19 +46,34 @@
     <t>Proposed Solution</t>
   </si>
   <si>
+    <t>Ahmed Mohamed</t>
+  </si>
+  <si>
+    <t>V1.0</t>
+  </si>
+  <si>
+    <t>2 / / Key Elements/ 4</t>
+  </si>
+  <si>
+    <t>add the point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	The Customer can see the bumps he met</t>
+  </si>
+  <si>
+    <t>4/ /Mapping Requirements ID’s/ 4</t>
+  </si>
+  <si>
+    <t>The Customer can see the bumps he met</t>
+  </si>
+  <si>
     <t>CR_REV_0001</t>
   </si>
   <si>
-    <t>21/10</t>
-  </si>
-  <si>
-    <t>Ahmed Mohamed</t>
+    <t>CR_REV_0002</t>
   </si>
   <si>
     <t>CR_REV_ID</t>
-  </si>
-  <si>
-    <t>V1.0</t>
   </si>
 </sst>
 </file>
@@ -149,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -164,9 +178,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -413,8 +424,8 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -429,7 +440,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -455,32 +466,52 @@
     </row>
     <row r="2" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44857</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
       <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44857</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
@@ -577,16 +608,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9B076B-6709-46BB-9DBF-3558C54B2CEA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/input Documant/cr/Review/PO_SB_CR_WEB_Review.xlsx
+++ b/input Documant/cr/Review/PO_SB_CR_WEB_Review.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Graduation_Project\Web_SWProcess_Documents\input Documant\cr\Review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mentorship\SB\Web_SWProcess_Documents\Input Documant\CR\Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7CB1B7-571E-4FB5-B912-38A93C9F4476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Entry Date</t>
   </si>
@@ -44,33 +43,6 @@
   </si>
   <si>
     <t>Proposed Solution</t>
-  </si>
-  <si>
-    <t>Ahmed Mohamed</t>
-  </si>
-  <si>
-    <t>V1.0</t>
-  </si>
-  <si>
-    <t>2 / / Key Elements/ 4</t>
-  </si>
-  <si>
-    <t>add the point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	The Customer can see the bumps he met</t>
-  </si>
-  <si>
-    <t>4/ /Mapping Requirements ID’s/ 4</t>
-  </si>
-  <si>
-    <t>The Customer can see the bumps he met</t>
-  </si>
-  <si>
-    <t>CR_REV_0001</t>
-  </si>
-  <si>
-    <t>CR_REV_0002</t>
   </si>
   <si>
     <t>CR_REV_ID</t>
@@ -79,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
@@ -182,7 +154,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="عادي" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -418,29 +390,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
-    <col min="6" max="7" width="44.5703125" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="6" max="7" width="44.5546875" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -464,71 +436,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3">
-        <v>44857</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
+    <row r="2" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3">
-        <v>44857</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
+    <row r="3" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
@@ -540,7 +484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
@@ -552,7 +496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
@@ -564,44 +508,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="A2:H9">
+  <conditionalFormatting sqref="A2:H7">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>$H2 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:H9">
+  <conditionalFormatting sqref="A2:H7">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>$H2= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H7">
       <formula1>"Open,Closed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/input Documant/cr/Review/PO_SB_CR_WEB_Review.xlsx
+++ b/input Documant/cr/Review/PO_SB_CR_WEB_Review.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Entry Date</t>
   </si>
@@ -46,6 +46,96 @@
   </si>
   <si>
     <t>CR_REV_ID</t>
+  </si>
+  <si>
+    <t>CR_REV_0001</t>
+  </si>
+  <si>
+    <t>Esraa Abdelnaby</t>
+  </si>
+  <si>
+    <t>V1.0</t>
+  </si>
+  <si>
+    <t>1//Table of content/</t>
+  </si>
+  <si>
+    <t>Reference Documentation: ……………………………………………1</t>
+  </si>
+  <si>
+    <t>CR_REV_0002</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Alignment problem</t>
+  </si>
+  <si>
+    <t>All tables and headers shall be aligned together</t>
+  </si>
+  <si>
+    <t>CR_REV_0003</t>
+  </si>
+  <si>
+    <t>1//Table of content/Project Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name of the forth element is not the same as it's section </t>
+  </si>
+  <si>
+    <t>Modify " Website Description" to be "Project Description" instead.</t>
+  </si>
+  <si>
+    <t>CR_REV_0004</t>
+  </si>
+  <si>
+    <t>1//Project Description/Key Elements/</t>
+  </si>
+  <si>
+    <t>Please add some customer requirements to describe what needed to be covered for "dashboard roles".</t>
+  </si>
+  <si>
+    <t>Dashboard roles requirement is missing.</t>
+  </si>
+  <si>
+    <t>CR_REV_0005</t>
+  </si>
+  <si>
+    <t>1//Mapping Requirements IDs</t>
+  </si>
+  <si>
+    <t>The table will not be updated</t>
+  </si>
+  <si>
+    <t>This element should be from table of content</t>
+  </si>
+  <si>
+    <t>After fixing the previous points, you should update the Mapping Requirements IDs.</t>
+  </si>
+  <si>
+    <t>CR_REV_0006</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>Versions is not updated</t>
+  </si>
+  <si>
+    <t>* Update document version to be 1.2
+* update each modified requiremt's version</t>
+  </si>
+  <si>
+    <t>CR_REV_0007</t>
+  </si>
+  <si>
+    <t>Document History</t>
+  </si>
+  <si>
+    <t>You should add 2 rows:
+1- 1.1 change details 
+2- 1.2 change details</t>
   </si>
 </sst>
 </file>
@@ -137,26 +227,555 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -394,134 +1013,296 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
-    <col min="6" max="7" width="44.5546875" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="3"/>
+    <col min="3" max="3" width="22" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="44.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="14.44140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="4" t="s">
+    <row r="2" spans="1:8" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44859</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="4" t="s">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44859</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="4" t="s">
+    <row r="4" spans="1:8" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44859</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="4" t="s">
+    <row r="5" spans="1:8" ht="40.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44859</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="4" t="s">
+    <row r="6" spans="1:8" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44859</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4" t="s">
+    <row r="7" spans="1:8" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44859</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:8" ht="40.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44859</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="A2:H7">
-    <cfRule type="expression" dxfId="1" priority="3">
+  <conditionalFormatting sqref="A2:H3 A4:A8">
+    <cfRule type="expression" dxfId="29" priority="19">
       <formula>$H2 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:H7">
-    <cfRule type="expression" dxfId="0" priority="4">
+  <conditionalFormatting sqref="A2:H3 A4:A8">
+    <cfRule type="expression" dxfId="28" priority="20">
       <formula>$H2= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B4:H4">
+    <cfRule type="expression" dxfId="27" priority="15">
+      <formula>$H4 = "Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:H4">
+    <cfRule type="expression" dxfId="26" priority="16">
+      <formula>$H4= "Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:H5">
+    <cfRule type="expression" dxfId="25" priority="13">
+      <formula>$H5 = "Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:H5">
+    <cfRule type="expression" dxfId="24" priority="14">
+      <formula>$H5= "Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:H6">
+    <cfRule type="expression" dxfId="21" priority="9">
+      <formula>$H6 = "Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:H6">
+    <cfRule type="expression" dxfId="20" priority="10">
+      <formula>$H6= "Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:H7">
+    <cfRule type="expression" dxfId="15" priority="5">
+      <formula>$H7 = "Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:H7">
+    <cfRule type="expression" dxfId="13" priority="6">
+      <formula>$H7= "Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:H8">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>$H8 = "Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:H8">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$H8= "Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H8">
       <formula1>"Open,Closed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/input Documant/cr/Review/PO_SB_CR_WEB_Review.xlsx
+++ b/input Documant/cr/Review/PO_SB_CR_WEB_Review.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mentorship\SB\Web_SWProcess_Documents\Input Documant\CR\Review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Graduation_Project\Web_SWProcess_Documents\input Documant\cr\Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F643D9BB-153A-402E-AB27-0DE47DF2A23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +40,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Proposed Solution</t>
   </si>
   <si>
@@ -136,12 +134,15 @@
     <t>You should add 2 rows:
 1- 1.1 change details 
 2- 1.2 change details</t>
+  </si>
+  <si>
+    <t>Closed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
@@ -225,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -242,425 +243,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <b/>
@@ -1009,31 +599,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="3"/>
+    <col min="1" max="1" width="17.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="3"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="44.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="14.44140625" style="3"/>
+    <col min="4" max="4" width="32.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" style="3" customWidth="1"/>
+    <col min="6" max="7" width="44.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1051,258 +641,258 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>44859</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B3" s="4">
         <v>44859</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="B4" s="4">
         <v>44859</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="40.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="B5" s="4">
         <v>44859</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="B6" s="4">
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="B7" s="4">
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="40.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="B8" s="4">
         <v>44859</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="A2:H3 A4:A8">
-    <cfRule type="expression" dxfId="29" priority="19">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>$H2 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:H3 A4:A8">
-    <cfRule type="expression" dxfId="28" priority="20">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>$H2= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:H4">
-    <cfRule type="expression" dxfId="27" priority="15">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>$H4 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:H4">
-    <cfRule type="expression" dxfId="26" priority="16">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>$H4= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:H5">
-    <cfRule type="expression" dxfId="25" priority="13">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>$H5 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:H5">
-    <cfRule type="expression" dxfId="24" priority="14">
+    <cfRule type="expression" dxfId="6" priority="14">
       <formula>$H5= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:H6">
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>$H6 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:H6">
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>$H6= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:H7">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$H7 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:H7">
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$H7= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:H8">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$H8 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:H8">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$H8= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Open,Closed"</formula1>
     </dataValidation>
   </dataValidations>
